--- a/classification_reports.xlsx
+++ b/classification_reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotan\SchoolStuffs\2024-25\BachelorProject\Openstreetmap_Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A79322A-AE9A-4895-BD08-BF93CDF05439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EE4063-F21B-4F3B-9400-2FFA35AFACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
